--- a/Assets/Game/G01/Script/G01.Module/ExcelToConfig/CopySmallGame.G01.Cfg.CheckPoint.xlsx
+++ b/Assets/Game/G01/Script/G01.Module/ExcelToConfig/CopySmallGame.G01.Cfg.CheckPoint.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
-    <sheet name="Cfg_Monster" sheetId="2" r:id="rId1"/>
+    <sheet name="Cfg_CheckPoint" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,36 +26,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="51">
   <si>
     <t>怪物属性表</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>常量</t>
   </si>
   <si>
     <t>唯一资源路径</t>
   </si>
   <si>
-    <t>内部名称</t>
-  </si>
-  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>explain</t>
   </si>
   <si>
     <t>onlyAssetPath</t>
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>int[]</t>
@@ -65,27 +50,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ame</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
@@ -131,15 +95,197 @@
     <t>16</t>
   </si>
   <si>
-    <t>-1,25,1,0</t>
+    <t>方块方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>月亮星空</t>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>constant22</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>障碍物类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0=普通障碍物
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1=火球</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loat</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ebornTime</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ubeDirection</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bstacleType</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,12,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>270</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -235,6 +381,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,39 +660,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z16366"/>
+  <dimension ref="A1:W16366"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
-    <col min="5" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="22.25" customWidth="1"/>
-    <col min="10" max="10" width="19.875" customWidth="1"/>
-    <col min="11" max="11" width="17.25" customWidth="1"/>
-    <col min="12" max="12" width="20.5" customWidth="1"/>
-    <col min="13" max="13" width="41.25" customWidth="1"/>
-    <col min="14" max="14" width="23.25" customWidth="1"/>
-    <col min="15" max="17" width="13.125" customWidth="1"/>
-    <col min="18" max="18" width="20.875" customWidth="1"/>
-    <col min="19" max="19" width="25.75" customWidth="1"/>
-    <col min="20" max="20" width="17.5" customWidth="1"/>
-    <col min="21" max="21" width="11.625" customWidth="1"/>
-    <col min="22" max="23" width="20.75" customWidth="1"/>
-    <col min="24" max="24" width="15" customWidth="1"/>
-    <col min="26" max="26" width="21.875" customWidth="1"/>
+    <col min="2" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="22.25" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="10" max="10" width="41.25" customWidth="1"/>
+    <col min="11" max="11" width="23.25" customWidth="1"/>
+    <col min="12" max="14" width="13.125" customWidth="1"/>
+    <col min="15" max="15" width="20.875" customWidth="1"/>
+    <col min="16" max="16" width="25.75" customWidth="1"/>
+    <col min="17" max="17" width="17.5" customWidth="1"/>
+    <col min="18" max="18" width="11.625" customWidth="1"/>
+    <col min="19" max="20" width="20.75" customWidth="1"/>
+    <col min="21" max="21" width="15" customWidth="1"/>
+    <col min="23" max="23" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,23 +697,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
+      <c r="D1" s="12" t="s">
+        <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
+      <c r="E1" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -577,55 +723,49 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="4" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="12" t="s">
+        <v>40</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="1"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="7"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="7"/>
+      <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
+      <c r="C3" s="12" t="s">
+        <v>44</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>14</v>
+      <c r="D3" s="14" t="s">
+        <v>45</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
+      <c r="E3" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -645,25 +785,22 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
+      <c r="C4" s="9" t="s">
+        <v>47</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
+      <c r="D4" s="9" t="s">
+        <v>46</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
+      <c r="E4" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -683,670 +820,916 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="P5" s="10"/>
       <c r="R5" s="3"/>
-      <c r="S5" s="10"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="P6" s="10"/>
       <c r="R6" s="3"/>
-      <c r="S6" s="10"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="13"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
     </row>
-    <row r="7" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="P7" s="10"/>
       <c r="R7" s="3"/>
-      <c r="S7" s="10"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="13"/>
       <c r="U7" s="3"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="P8" s="10"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="10"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="13"/>
       <c r="U8" s="3"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
     </row>
-    <row r="9" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="P9" s="10"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="10"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="13"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
     </row>
-    <row r="10" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="P10" s="10"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="10"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="13"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
     </row>
-    <row r="11" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="P11" s="10"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="10"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="13"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="P12" s="10"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="10"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="13"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
     </row>
-    <row r="13" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="P13" s="10"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="10"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="13"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="P14" s="10"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="10"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="13"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>30</v>
+      <c r="E15" s="9" t="s">
+        <v>41</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="P15" s="10"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="10"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="P16" s="10"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="10"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="P17" s="10"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="10"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="P18" s="10"/>
       <c r="R18" s="3"/>
-      <c r="S18" s="10"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="P19" s="10"/>
       <c r="R19" s="3"/>
-      <c r="S19" s="10"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="P20" s="10"/>
       <c r="R20" s="3"/>
-      <c r="S20" s="10"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
     </row>
-    <row r="21" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
+    <row r="21" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
     </row>
-    <row r="22" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="U23" s="11"/>
+    <row r="22" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="U24" s="11"/>
+    <row r="23" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R23" s="11"/>
     </row>
-    <row r="25" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="9"/>
+    </row>
+    <row r="50" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="9"/>
+    </row>
+    <row r="51" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="9"/>
+    </row>
+    <row r="52" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="9"/>
+    </row>
+    <row r="55" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="9"/>
+    </row>
+    <row r="58" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="9"/>
+    </row>
+    <row r="59" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="9"/>
+    </row>
+    <row r="60" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="9"/>
+    </row>
+    <row r="63" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="9"/>
+    </row>
+    <row r="64" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="9"/>
+    </row>
+    <row r="65" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="9"/>
+    </row>
+    <row r="67" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="9"/>
+    </row>
+    <row r="68" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="9"/>
+    </row>
+    <row r="69" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="9"/>
+    </row>
+    <row r="70" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="9"/>
+    </row>
+    <row r="71" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="9"/>
+    </row>
+    <row r="72" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="9"/>
+    </row>
+    <row r="73" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="3:3" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="81" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="82" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="83" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
